--- a/【調査報告】センサー.xlsx
+++ b/【調査報告】センサー.xlsx
@@ -996,25 +996,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※纏めたセンサーの中で、二つ「カメラとGPS」を選んで、試作する。</t>
-    <rPh sb="1" eb="2">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>選んだカメラとGPS両方とも以下の三つ種類のサンプルに実装する。</t>
     <rPh sb="0" eb="1">
       <t>エラ</t>
@@ -1109,19 +1090,6 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モバイルセンサー一覧については、モバイルせんさーシートに纏めた。ご参照ください。</t>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1427,6 +1395,44 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>シュヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モバイルセンサー一覧については、モバイルセンサーシートに纏めた。ご参照ください。</t>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※オフラインで動作かどうか確認するために、纏めたセンサーの中で、二つ「カメラとGPS」を選んで、試作する。</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1887,7 +1893,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1948,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1992,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2036,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2080,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2124,7 @@
         <xdr:cNvPr id="17" name="フローチャート: 処理 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2195,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2239,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2305,7 @@
         <xdr:cNvPr id="10" name="角丸四角形吹き出し 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2372,7 @@
         <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2416,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2482,7 @@
         <xdr:cNvPr id="13" name="角丸四角形吹き出し 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2549,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2593,7 @@
         <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2659,7 @@
         <xdr:cNvPr id="16" name="角丸四角形吹き出し 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,7 +2739,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2783,7 @@
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2827,7 @@
         <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +2893,7 @@
         <xdr:cNvPr id="15" name="角丸四角形吹き出し 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +2960,7 @@
         <xdr:cNvPr id="22" name="下矢印 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3020,7 @@
         <xdr:cNvPr id="23" name="1 つの角を切り取った四角形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3087,7 @@
         <xdr:cNvPr id="24" name="右矢印 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3147,7 @@
         <xdr:cNvPr id="7" name="グループ化 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3166,7 @@
           <xdr:cNvPr id="33" name="図 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000021000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3195,7 +3201,7 @@
           <xdr:cNvPr id="34" name="正方形/長方形 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000022000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3241,7 +3247,7 @@
           <xdr:cNvPr id="35" name="角丸四角形吹き出し 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000023000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3309,7 +3315,7 @@
         <xdr:cNvPr id="36" name="1 つの角を切り取った四角形 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3376,7 +3382,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3426,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3492,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4031,7 @@
     </row>
     <row r="7" spans="1:32" ht="16" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -4062,7 +4068,7 @@
     <row r="8" spans="1:32" ht="16" customHeight="1">
       <c r="A8" s="28"/>
       <c r="B8" s="27" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -4096,7 +4102,7 @@
     </row>
     <row r="9" spans="1:32" ht="16" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -4132,7 +4138,7 @@
     <row r="10" spans="1:32" ht="16" customHeight="1">
       <c r="A10" s="28"/>
       <c r="B10" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -4167,7 +4173,7 @@
     <row r="11" spans="1:32" ht="16" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -4202,7 +4208,7 @@
     <row r="12" spans="1:32" ht="16" customHeight="1">
       <c r="A12" s="28"/>
       <c r="B12" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -4342,7 +4348,7 @@
     <row r="16" spans="1:32" ht="16" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -4514,7 +4520,7 @@
     </row>
     <row r="21" spans="1:32" ht="16" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -4758,7 +4764,7 @@
     </row>
     <row r="28" spans="1:32" ht="16" customHeight="1">
       <c r="A28" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -5005,7 +5011,7 @@
     </row>
     <row r="35" spans="1:31" ht="16" customHeight="1">
       <c r="A35" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -5040,7 +5046,7 @@
     </row>
     <row r="36" spans="1:31" ht="16" customHeight="1">
       <c r="A36" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -5323,7 +5329,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>70</v>

--- a/【調査報告】センサー.xlsx
+++ b/【調査報告】センサー.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="調査報告" sheetId="8" r:id="rId1"/>
-    <sheet name="一覧" sheetId="1" r:id="rId2"/>
-    <sheet name="アーキテクチャ" sheetId="4" r:id="rId3"/>
+    <sheet name="アーキテクチャ" sheetId="4" r:id="rId2"/>
+    <sheet name="サンプル作成一覧" sheetId="1" r:id="rId3"/>
     <sheet name="環境構築" sheetId="7" r:id="rId4"/>
-    <sheet name="widget作成" sheetId="2" r:id="rId5"/>
+    <sheet name="Widget作成" sheetId="2" r:id="rId5"/>
     <sheet name="実行手順" sheetId="3" r:id="rId6"/>
     <sheet name="モバイルセンサー" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">調査報告!$A$1:$AE$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">調査報告!$A$1:$AE$48</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">調査報告!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -370,10 +370,6 @@
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムwidgetアーキテクチャ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -565,10 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブラウザでhttp://IP：8080を入力すると、下記画面へ遷移する。</t>
     <rPh sb="20" eb="22">
       <t>ニュウリョク</t>
@@ -652,63 +644,6 @@
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>※具体的な手順は「一覧」シートをご参照になります。</t>
-    <rPh sb="1" eb="4">
-      <t>グタイテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>「アーキテクチャ」シートをご参照になります</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <rPh sb="10" eb="12">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.IOSとAndroid両方とも調査必要がある、ご注意ください。</t>
-    <rPh sb="13" eb="15">
-      <t>ﾍﾞﾂﾍﾞﾂ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ﾁｮｳｻ</t>
-    </rPh>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -770,32 +705,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.yoを利用し、widget用テンプレートが自動に生成される。</t>
-    <rPh sb="15" eb="16">
-      <t>ﾖｳ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ｼﾞﾄﾞｳ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ﾂｸ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.生成されたのテンプレートの中で、ロジックを実装する。</t>
-    <rPh sb="2" eb="3">
-      <t>ﾂｸ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ｳｴ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ｼﾞｯｿｳ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>2.2.GPS機能はプラグイン「@react-native-community/geolocation」を利用している。</t>
     <rPh sb="7" eb="9">
       <t>ｷﾉｳ</t>
@@ -806,34 +715,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>今回の調査範囲になってない、次回で調査する予定です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ちなみに、モバイルを利用せずに、mendixのツールを利用して実現することもできます。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※今回は作成したプログラムはモバイルにて正常に起動できるのみ確認しました。</t>
-    <rPh sb="1" eb="3">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>五.成果物</t>
     <rPh sb="2" eb="5">
       <t>ｾｲｶﾌﾞﾂ</t>
@@ -844,46 +725,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1.サンプル作成手順</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.プロジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※詳細は一覧シートをご参照ください。</t>
-    <rPh sb="1" eb="3">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.Hybrid及びnativeの発行手順については、次回で調査する予定です。</t>
-    <rPh sb="8" eb="9">
-      <t>ｵﾖ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ﾊｯｺｳ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ﾃｼﾞｭﾝ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>オフラインでどのように動作するか・モバイルのセンサー(カメラ、GPS、...)</t>
     <rPh sb="11" eb="13">
       <t>ドウサ</t>
@@ -891,16 +732,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4.widget作成仕方</t>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シカタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>センサー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -996,100 +827,113 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>選んだカメラとGPS両方とも以下の三つ種類のサンプルに実装する。</t>
-    <rPh sb="0" eb="1">
-      <t>エラ</t>
+    <t>2.センサー使い方を調査する</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ミッ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.モバイルセンサー種類を調査する。</t>
+    <rPh sb="10" eb="12">
       <t>シュルイ</t>
     </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①native</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②hybrid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.1.カメラ機能はプラグイン「web版：react-html5-camera-photoまたはnative版：react-native-camera」を利用している。</t>
+    <rPh sb="13" eb="15">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.生成されたのテンプレートをベースとしてロジックを実装する。</t>
+    <rPh sb="2" eb="3">
+      <t>ﾂｸ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ｳｴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ｼﾞｯｿｳ</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.カメラ機能はプラグイン「react-html5-camera-photo」を利用している。</t>
     <rPh sb="7" eb="9">
       <t>ｷﾉｳ</t>
     </rPh>
-    <rPh sb="19" eb="20">
-      <t>ばん</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>はん</t>
-    </rPh>
-    <rPh sb="78" eb="80">
+    <rPh sb="43" eb="45">
       <t>ﾘﾖｳ</t>
     </rPh>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1.テスト例の実行環境はmendixから提供されたのツールにする。「Nativeまたはhybridを発行できるか？」については</t>
+    <t>1.Mendixから提供したyoコマンドを利用し、Widget用テンプレートが自動に生成される。</t>
+    <rPh sb="10" eb="12">
+      <t>ていきょう</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ﾖｳ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ｼﾞﾄﾞｳ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ﾂｸ</t>
+    </rPh>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>作成したプログラムが正常に動作できるのみならず、機能「カメラ及びGPS」が正常に使える。</t>
-    <rPh sb="0" eb="2">
+    <t>②Hybrid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①Web</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③Native</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ブラウザでカメラ及びGPSが正常に動作できる。</t>
+    <rPh sb="16" eb="18">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①環境構築</t>
+    <rPh sb="1" eb="3">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②Widget作成</t>
+    <rPh sb="7" eb="9">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.react関連知識については、次回で調査することを予定にする。</t>
-    <rPh sb="7" eb="9">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チシキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヨテイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③実行手順</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テジュン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1363,12 +1207,10 @@
 ※ソース格納箇所
   　カメラソース：
     https://github.com/fuchb/mendix_caremrasample.git
-    webとhybridブランチ：develop-web
-    nativeブランチ：develop-company-camera-fullscreen
+    ブランチ：develop-web
     GPSソース：
     https://github.com/fuchb/mendix-GPSTest.git
-     webとhybridブランチブランチ：develop
- 　　nativeブランチ：develop-native
+ 　　ブランチ：develop
 </t>
     </r>
     <rPh sb="7" eb="9">
@@ -1383,65 +1225,189 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6.纏めたセンサー一覧は全部ではなく、主要なセンサーしかではない。</t>
-    <rPh sb="2" eb="3">
-      <t>マト</t>
+    <t>※詳細はサンプル作成一覧シートをご参照ください。</t>
+  </si>
+  <si>
+    <t>1.モバイルセンサー一覧</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.カスタムWidgetアーキテクチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※詳細はモバイルセンサーシートをご参照ください。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.サンプル作成手順</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.プロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※詳細はアーキテクチャシートをご参照ください。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※添付ファイルをご参照ください。</t>
+    <rPh sb="1" eb="3">
+      <t>テンプ</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゼンブ</t>
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.カメラとGPSだけサンプルを作成しましたが、他のセンサー使用仕方を調査する必要がある。</t>
+    <rPh sb="16" eb="18">
+      <t>さくせい</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ほか</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>しよう</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>しかた</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ちょうさ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ひつよう</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.WebとHybridしか調査していない。Native(AndroidとiOS)を調査する必要である。</t>
+    <rPh sb="14" eb="16">
+      <t>ちょうさ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ﾁｮｳｻ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ひつよう</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.WidgetはReactを利用して構築している。React関連知識を調査するが必要である。</t>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>シュヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モバイルセンサー一覧については、モバイルセンサーシートに纏めた。ご参照ください。</t>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>マト</t>
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンレン</t>
     </rPh>
     <rPh sb="33" eb="35">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※オフラインで動作かどうか確認するために、纏めたセンサーの中で、二つ「カメラとGPS」を選んで、試作する。</t>
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アプリ実装仕方を調査する</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
     <rPh sb="7" eb="9">
+      <t>シカタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.MendixのHybrid Phone App OnlineでHybridサンプルを実行する。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.ブラウザでWebサンプルを実行する。</t>
+    <rPh sb="15" eb="17">
+      <t>じっこう</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.MendixのHybrid Phone App Onlineで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="3"/>
+      </rPr>
+      <t>カメラ及びGPSが正常に動作できる。</t>
+    </r>
+    <rPh sb="42" eb="44">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
       <t>ドウサ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.現状は、HybridアプリをHybrid Phone App Onlinenには試験している。Hybridアプリの発行手順を調査する必要である。</t>
+    <rPh sb="2" eb="4">
+      <t>げんじょう</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>しけん</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ﾊｯｺｳ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ﾃｼﾞｭﾝ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ひつよう</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1559,21 +1525,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体 (正文)"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="1"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1583,13 +1534,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1619,6 +1563,17 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1706,7 +1661,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1781,25 +1736,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3155,8 +3104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12604750" y="12998450"/>
-          <a:ext cx="2686050" cy="4756150"/>
+          <a:off x="12358370" y="13196570"/>
+          <a:ext cx="2630170" cy="4829810"/>
           <a:chOff x="12065000" y="52457350"/>
           <a:chExt cx="2660650" cy="4756150"/>
         </a:xfrm>
@@ -3808,9 +3757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF40"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="150" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="16" customHeight="1"/>
   <cols>
@@ -3821,7 +3772,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="16" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -3853,82 +3804,82 @@
       <c r="AC1" s="23"/>
       <c r="AD1" s="23"/>
       <c r="AE1" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="24" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+    </row>
+    <row r="3" spans="1:32" ht="16" customHeight="1">
+      <c r="A3" s="37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" ht="24" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-    </row>
-    <row r="3" spans="1:32" ht="16" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
     </row>
     <row r="4" spans="1:32" ht="16" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -3995,43 +3946,43 @@
       <c r="AE5" s="27"/>
     </row>
     <row r="6" spans="1:32" ht="16" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
+      <c r="A6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
     </row>
     <row r="7" spans="1:32" ht="16" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -4063,13 +4014,13 @@
       <c r="AC7" s="27"/>
       <c r="AD7" s="27"/>
       <c r="AE7" s="27"/>
-      <c r="AF7" s="33"/>
+      <c r="AF7" s="30"/>
     </row>
     <row r="8" spans="1:32" ht="16" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="27" t="s">
-        <v>109</v>
-      </c>
+      <c r="A8" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -4101,8 +4052,8 @@
       <c r="AE8" s="27"/>
     </row>
     <row r="9" spans="1:32" ht="16" customHeight="1">
-      <c r="A9" s="37" t="s">
-        <v>98</v>
+      <c r="A9" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -4138,7 +4089,7 @@
     <row r="10" spans="1:32" ht="16" customHeight="1">
       <c r="A10" s="28"/>
       <c r="B10" s="27" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -4173,7 +4124,7 @@
     <row r="11" spans="1:32" ht="16" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="27" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -4208,7 +4159,7 @@
     <row r="12" spans="1:32" ht="16" customHeight="1">
       <c r="A12" s="28"/>
       <c r="B12" s="27" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -4241,78 +4192,76 @@
       <c r="AE12" s="27"/>
     </row>
     <row r="13" spans="1:32" ht="16" customHeight="1">
-      <c r="A13" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
     </row>
     <row r="14" spans="1:32" ht="16" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
+      <c r="A14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
     </row>
     <row r="15" spans="1:32" ht="16" customHeight="1">
       <c r="A15" s="27" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -4346,10 +4295,10 @@
       <c r="AE15" s="27"/>
     </row>
     <row r="16" spans="1:32" ht="16" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
-        <v>102</v>
-      </c>
+      <c r="A16" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -4383,7 +4332,7 @@
     <row r="17" spans="1:32" ht="16" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="27" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4417,8 +4366,8 @@
     </row>
     <row r="18" spans="1:32" ht="16" customHeight="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="31" t="s">
-        <v>64</v>
+      <c r="B18" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4451,7 +4400,9 @@
       <c r="AE18" s="27"/>
     </row>
     <row r="19" spans="1:32" ht="16" customHeight="1">
-      <c r="A19" s="27"/>
+      <c r="A19" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4484,44 +4435,42 @@
       <c r="AE19" s="27"/>
     </row>
     <row r="20" spans="1:32" ht="16" customHeight="1">
-      <c r="A20" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
+      <c r="A20" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="1:32" ht="16" customHeight="1">
-      <c r="A21" s="38" t="s">
-        <v>104</v>
-      </c>
+      <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4552,79 +4501,81 @@
       <c r="AC21" s="27"/>
       <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
-      <c r="AF21" s="33"/>
     </row>
     <row r="22" spans="1:32" ht="16" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
+      <c r="A22" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
     </row>
     <row r="23" spans="1:32" ht="16" customHeight="1">
-      <c r="A23" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
+      <c r="A23" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="30"/>
     </row>
     <row r="24" spans="1:32" ht="16" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>78</v>
+      <c r="A24" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -4658,9 +4609,7 @@
       <c r="AE24" s="27"/>
     </row>
     <row r="25" spans="1:32" ht="16" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>79</v>
-      </c>
+      <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4693,80 +4642,80 @@
       <c r="AE25" s="27"/>
     </row>
     <row r="26" spans="1:32" ht="16" customHeight="1">
-      <c r="A26" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
+      <c r="A26" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
     </row>
     <row r="27" spans="1:32" ht="16" customHeight="1">
-      <c r="A27" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
+      <c r="A27" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
     </row>
     <row r="28" spans="1:32" ht="16" customHeight="1">
-      <c r="A28" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="27"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
+        <v>98</v>
+      </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -4799,11 +4748,9 @@
     </row>
     <row r="29" spans="1:32" ht="16" customHeight="1">
       <c r="A29" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>74</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -4836,8 +4783,8 @@
     </row>
     <row r="30" spans="1:32" ht="16" customHeight="1">
       <c r="A30" s="27"/>
-      <c r="B30" s="31" t="s">
-        <v>76</v>
+      <c r="B30" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4870,11 +4817,11 @@
       <c r="AE30" s="27"/>
     </row>
     <row r="31" spans="1:32" ht="16" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31" t="s">
-        <v>75</v>
-      </c>
+      <c r="A31" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -4905,10 +4852,10 @@
       <c r="AE31" s="27"/>
     </row>
     <row r="32" spans="1:32" ht="16" customHeight="1">
-      <c r="A32" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="27"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
@@ -4940,10 +4887,10 @@
       <c r="AE32" s="27"/>
     </row>
     <row r="33" spans="1:31" ht="16" customHeight="1">
-      <c r="A33" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="27"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -4961,7 +4908,7 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
-      <c r="T33" s="32"/>
+      <c r="T33" s="27"/>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
       <c r="W33" s="27"/>
@@ -4975,10 +4922,10 @@
       <c r="AE33" s="27"/>
     </row>
     <row r="34" spans="1:31" ht="16" customHeight="1">
-      <c r="A34" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="27"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -5010,10 +4957,10 @@
       <c r="AE34" s="27"/>
     </row>
     <row r="35" spans="1:31" ht="16" customHeight="1">
-      <c r="A35" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="27"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="27" t="s">
+        <v>95</v>
+      </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -5046,7 +4993,7 @@
     </row>
     <row r="36" spans="1:31" ht="16" customHeight="1">
       <c r="A36" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -5080,44 +5027,42 @@
       <c r="AE36" s="27"/>
     </row>
     <row r="37" spans="1:31" ht="16" customHeight="1">
-      <c r="A37" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
     </row>
     <row r="38" spans="1:31" ht="16" customHeight="1">
-      <c r="A38" s="27" t="s">
-        <v>63</v>
-      </c>
+      <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -5150,40 +5095,44 @@
       <c r="AE38" s="27"/>
     </row>
     <row r="39" spans="1:31" ht="16" customHeight="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
+      <c r="A39" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
     </row>
     <row r="40" spans="1:31" ht="16" customHeight="1">
-      <c r="A40" s="27"/>
+      <c r="A40" s="27" t="s">
+        <v>103</v>
+      </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -5215,20 +5164,294 @@
       <c r="AD40" s="27"/>
       <c r="AE40" s="27"/>
     </row>
+    <row r="41" spans="1:31" ht="16" customHeight="1">
+      <c r="A41" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+    </row>
+    <row r="42" spans="1:31" ht="16" customHeight="1">
+      <c r="A42" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+    </row>
+    <row r="43" spans="1:31" ht="16" customHeight="1">
+      <c r="A43" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+    </row>
+    <row r="44" spans="1:31" ht="16" customHeight="1">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+    </row>
+    <row r="45" spans="1:31" ht="16" customHeight="1">
+      <c r="A45" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
+    </row>
+    <row r="46" spans="1:31" ht="16" customHeight="1">
+      <c r="A46" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+    </row>
+    <row r="47" spans="1:31" ht="16" customHeight="1">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+    </row>
+    <row r="48" spans="1:31" ht="16" customHeight="1">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A27:AE27"/>
-    <mergeCell ref="A37:AE37"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="A45:AE45"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
     <mergeCell ref="A6:AE6"/>
-    <mergeCell ref="A13:AE13"/>
-    <mergeCell ref="A20:AE20"/>
-    <mergeCell ref="A23:AE23"/>
+    <mergeCell ref="A14:AE14"/>
+    <mergeCell ref="A22:AE22"/>
+    <mergeCell ref="A26:AE26"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" display="2.2.GPS機能は@react-native-community/geolocationというプラグインを利用している。"/>
+    <hyperlink ref="B18" r:id="rId1" display="2.2.GPS機能は@react-native-community/geolocationというプラグインを利用している。"/>
   </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5272,9 +5495,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
@@ -5297,77 +5537,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="29">
-      <c r="B4" s="19" t="s">
-        <v>51</v>
+    <row r="4" spans="2:5" ht="26">
+      <c r="B4" s="19">
+        <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="2:5" ht="26">
+    <row r="5" spans="2:5" ht="160.5">
       <c r="B5" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="52">
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="2:5" ht="186.5">
-      <c r="B6" s="19">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="52">
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5386,32 +5599,32 @@
   <sheetData>
     <row r="2" spans="2:2" ht="19">
       <c r="B2" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="19">
       <c r="B49" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E50" s="14"/>
     </row>
@@ -5430,9 +5643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
@@ -5768,7 +5979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K159"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="H75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:AC9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
@@ -5779,27 +5992,27 @@
   <sheetData>
     <row r="3" spans="2:2" ht="19">
       <c r="B3" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="11:11">
       <c r="K77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="41.5">
@@ -5808,7 +6021,7 @@
     </row>
     <row r="121" spans="2:6">
       <c r="B121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="2:2">
@@ -5831,17 +6044,17 @@
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5850,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -5859,7 +6072,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5868,10 +6081,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -5879,10 +6092,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -5890,18 +6103,18 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>95</v>
+      <c r="C8" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -5909,8 +6122,8 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>91</v>
+      <c r="C9" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -5918,8 +6131,8 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>96</v>
+      <c r="C10" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -5927,8 +6140,8 @@
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>92</v>
+      <c r="C11" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -5936,8 +6149,8 @@
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>97</v>
+      <c r="C12" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="D12" s="3"/>
     </row>
